--- a/output/ЭНЕРГО-ОИЛ-Торговый-реестр-новые.xlsx
+++ b/output/ЭНЕРГО-ОИЛ-Торговый-реестр-новые.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(54.62738269530315, 27.60961016098391)</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>(54.505673819900615, 26.92154222332228)</t>
+          <t>(55.206267478972705, 30.154341581095174)</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>(55.79262039973856, 28.847715450011197)</t>
+          <t>(52.29247487338439, 31.17348011518271)</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>(53.84988726683483, 27.493782482034767)</t>
+          <t>(55.29729737152607, 29.622901473375162)</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>(55.29729737152607, 29.622901473375162)</t>
+          <t>(55.18778156102188, 30.205778468300103)</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>(54.5227752525018, 26.745169179240644)</t>
+          <t>(52.96806444910059, 27.876165450001192)</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>(52.57255609912575, 27.593997549995674)</t>
+          <t>(52.590973141203335, 27.59166712165642)</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>(55.26146742290368, 30.62710046765766)</t>
+          <t>(55.391603999639756, 30.721256533288116)</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>(53.595197291898984, 25.381101532404568)</t>
+          <t>(53.60123470135642, 25.376288988495432)</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>(53.172520225303096, 24.438361362228004)</t>
+          <t>(53.17211893918327, 24.43816719251229)</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>(52.171009649154136, 26.13422780000298)</t>
+          <t>(52.3539079013954, 27.103903533684043)</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>(52.81773852315276, 26.555039355882815)</t>
+          <t>(54.17508404923833, 26.726999750000644)</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>(51.81712668849152, 29.133918399688778)</t>
+          <t>(53.09179154174753, 25.688919070789154)</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>(52.9364597393368, 27.896024115477527)</t>
+          <t>(54.5227752525018, 26.745169179240644)</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>(54.312257278448804, 26.88264715037148)</t>
+          <t>(53.920752287178594, 27.56887846791095)</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>(52.23098689960899, 27.24696794995849)</t>
+          <t>(52.25025389879197, 27.265900440389007)</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>(52.222697849159545, 27.07900314997863)</t>
+          <t>(52.19899145137997, 27.10806736987233)</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>(54.60151159938392, 26.883697350018576)</t>
+          <t>(52.815222971614105, 28.020011464853567)</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(54.61503684812353, 25.961493643021964)</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>(52.70850488580616, 25.33800452662793)</t>
+          <t>(52.704936047080174, 25.345101779446793)</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>(52.15788353249465, 24.367217104489534)</t>
+          <t>(52.021355023160474, 25.149404000744138)</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>(52.10485372251736, 26.05415668063307)</t>
+          <t>(52.10529811037887, 26.0498484126343)</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>(51.985949666129564, 27.074281197511397)</t>
+          <t>(51.996800864497565, 27.053196452512697)</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
@@ -10960,7 +10960,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>(52.04251714070882, 27.329417929293218)</t>
+          <t>(52.039451191188064, 27.338155330500026)</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>(51.894505998459294, 26.630397494662436)</t>
+          <t>(52.20330637584243, 28.218048926070736)</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>(53.6066512660893, 30.275455973749963)</t>
+          <t>(51.93355998362088, 23.929180190292673)</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>(54.093271299963845, 28.306913189164515)</t>
+          <t>(54.09609241284844, 28.304678360932137)</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
@@ -11171,6 +11171,16 @@
       <c r="G253" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>(53.71034556334829, 28.426910208698747)</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>(False)</t>
         </is>
       </c>
     </row>

--- a/output/ЭНЕРГО-ОИЛ-Торговый-реестр-новые.xlsx
+++ b/output/ЭНЕРГО-ОИЛ-Торговый-реестр-новые.xlsx
@@ -513,16 +513,6 @@
           <t>dom</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>(55.15617727232375, 30.3487146883786)</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>(False)</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="14.4" customHeight="1" s="3">
       <c r="A2" s="2" t="n">
@@ -690,7 +680,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -775,7 +765,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>(52.39989033201489, 30.905249483009115)</t>
+          <t>(52.42206379180423, 30.99744657277362)</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -820,7 +810,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>(55.206267478972705, 30.154341581095174)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -995,7 +985,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>(52.29247487338439, 31.17348011518271)</t>
+          <t>(55.79262039973856, 28.847715450011197)</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1040,7 +1030,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>(52.5253233491031, 30.928150150007944)</t>
+          <t>(52.4845334991173, 30.969876100017395)</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1080,7 +1070,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>(52.39989033201489, 30.905249483009115)</t>
+          <t>(52.42206379180423, 30.99744657277362)</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1115,7 +1105,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>(55.29729737152607, 29.622901473375162)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1150,7 +1140,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>(55.18778156102188, 30.205778468300103)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1190,7 +1180,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>(52.476958753851335, 24.511446824384677)</t>
+          <t>(52.111806199141746, 23.71603889999879)</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1350,7 +1340,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>(52.11015999911601, 23.727080900008524)</t>
+          <t>(52.106235099117654, 23.70854800000357)</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -1430,7 +1420,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>(52.120029485213735, 23.671566065133995)</t>
+          <t>(52.121030199301465, 23.67276549999498)</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -1520,7 +1510,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>(54.29639714930395, 26.879595549999628)</t>
+          <t>(54.29399624953919, 26.875469099491312)</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -1565,7 +1555,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>(54.25419964591828, 27.076074716416226)</t>
+          <t>(54.26332290206352, 27.06005001576516)</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -1608,16 +1598,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>(54.37476039935836, 26.657460249990823)</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="29" ht="14.4" customHeight="1" s="3">
       <c r="A29" s="2" t="n">
@@ -1700,7 +1680,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>(53.78019921237898, 27.600262121535884)</t>
+          <t>(53.780558946052935, 27.601889682398753)</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -1745,7 +1725,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>(54.017461550122675, 27.254556000358278)</t>
+          <t>(54.00763019919655, 27.277015099995445)</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2040,7 +2020,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>(53.47447561852723, 25.410024733522693)</t>
+          <t>(53.4690913466153, 25.406476422744518)</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2168,16 +2148,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>(54.63413516368687, 26.102376594485932)</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>(False)</t>
-        </is>
-      </c>
     </row>
     <row r="42" ht="14.4" customHeight="1" s="3">
       <c r="A42" s="2" t="n">
@@ -2665,7 +2635,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>(53.4044532001079, 26.317901955275655)</t>
+          <t>(53.404815895329676, 26.317211974875672)</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -2755,7 +2725,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>(53.83131476057311, 27.97532099245119)</t>
+          <t>(53.83046064919127, 27.967680749992777)</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -2980,12 +2950,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>(54.31543467992678, 26.81752547050205)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3125,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>(52.96806444910059, 27.876165450001192)</t>
+          <t>(52.9364597393368, 27.896024115477527)</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -3200,7 +3170,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>(54.315913678600914, 26.91703759436009)</t>
+          <t>(54.31722743985045, 26.885425558660344)</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -3285,7 +3255,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>(53.68495230514122, 23.84074283926823)</t>
+          <t>(53.68634801881392, 23.845119654827343)</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -3420,7 +3390,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>(52.590973141203335, 27.59166712165642)</t>
+          <t>(52.881730992100145, 26.849093242972717)</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -3580,7 +3550,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>(52.25562814914864, 26.843397849997203)</t>
+          <t>(52.0711748464657, 23.736622478662884)</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -3620,7 +3590,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>(52.06732150552639, 23.762989069515253)</t>
+          <t>(52.07068358210551, 23.764712704000196)</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -3860,12 +3830,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>(53.147516452646705, 26.07292566787185)</t>
+          <t>(52.09060320007741, 23.711080849983393)</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3870,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>(52.11273896428011, 23.73404736425929)</t>
+          <t>(52.11322637383417, 23.7346038152374)</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -4100,7 +4070,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>(52.120029485213735, 23.671566065133995)</t>
+          <t>(52.121030199301465, 23.67276549999498)</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -4190,7 +4160,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>(54.071705649321174, 27.21114415001262)</t>
+          <t>(54.06852312337453, 27.212076639859973)</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -4280,7 +4250,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>(53.91397152505551, 27.30025111127441)</t>
+          <t>(53.914234902097704, 27.29790067862478)</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -4505,7 +4475,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>(53.904282272570754, 27.19129593609693)</t>
+          <t>(53.89194740326441, 27.21087207699655)</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -4590,7 +4560,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>(54.47632487379691, 30.303853425090196)</t>
+          <t>(55.19914919952009, 30.181185550016473)</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -4660,7 +4630,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>(55.391603999639756, 30.721256533288116)</t>
+          <t>(55.26146742290368, 30.62710046765766)</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -4835,7 +4805,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>(54.54247607339293, 26.262406030883096)</t>
+          <t>(54.50574579935007, 26.198059900008072)</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -4880,7 +4850,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>(53.659207914549405, 26.07409331789827)</t>
+          <t>(53.65707390536734, 26.070004931177223)</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -4960,7 +4930,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>(54.5935995493401, 25.912656900001938)</t>
+          <t>(53.93736015270664, 28.646877903692964)</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
@@ -5135,7 +5105,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>(55.334674199562265, 30.70482704998537)</t>
+          <t>(55.38785813963438, 30.10013485376235)</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -5400,7 +5370,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>(53.45608539912208, 24.25694974999702)</t>
+          <t>(53.45539559915505, 24.259683799985037)</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -5555,7 +5525,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>(53.6947731203234, 23.793912501137942)</t>
+          <t>(53.697991625918874, 23.792374775985305)</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -5595,7 +5565,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>(53.71355000126361, 23.847944406739384)</t>
+          <t>(53.7114823865168, 23.84868352871408)</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -5635,7 +5605,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>(53.67955475497425, 23.909932608477536)</t>
+          <t>(53.67623394019289, 23.91834612320958)</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -5675,7 +5645,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>(53.6997776760158, 23.82724460657508)</t>
+          <t>(53.70985373478686, 23.847860845032468)</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -5855,7 +5825,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>(52.88447394481455, 30.02561058025499)</t>
+          <t>(52.8835766490953, 29.998095050000003)</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -6025,7 +5995,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>(52.429964867793, 30.90359659542712)</t>
+          <t>(52.41596586736854, 30.998504084868408)</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -6065,7 +6035,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>(52.429964867793, 30.90359659542712)</t>
+          <t>(52.41596586736854, 30.998504084868408)</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -6105,7 +6075,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>(53.6997776760158, 23.82724460657508)</t>
+          <t>(53.70985373478686, 23.847860845032468)</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -6145,7 +6115,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>(53.6997776760158, 23.82724460657508)</t>
+          <t>(53.70985373478686, 23.847860845032468)</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -6280,7 +6250,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>(52.50425555050709, 25.5569956499951)</t>
+          <t>(52.49755404911686, 25.5520373499988)</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -6325,7 +6295,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>(52.88614942115555, 25.49045449767346)</t>
+          <t>(52.88622928069631, 25.490612874257636)</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -6415,7 +6385,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>(52.6919137996311, 25.237427749985713)</t>
+          <t>(52.69586594910523, 25.241457950005596)</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -6505,7 +6475,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>(52.3539079013954, 27.103903533684043)</t>
+          <t>(52.412652372949864, 24.02078569112271)</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -6550,7 +6520,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>(54.42380799931447, 25.931859450001934)</t>
+          <t>(54.42237444749655, 25.92651986764786)</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
@@ -6865,7 +6835,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>(54.17508404923833, 26.726999750000644)</t>
+          <t>(52.81773852315276, 26.555039355882815)</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
@@ -7040,7 +7010,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>(52.74205039928121, 25.349904550070175)</t>
+          <t>(52.73207569817745, 25.322782983260108)</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
@@ -7265,7 +7235,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>(54.9383733662274, 30.702689856609947)</t>
+          <t>(52.8225904724738, 25.716744532202224)</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -7355,7 +7325,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>(53.24021674912876, 29.835053349998862)</t>
+          <t>(53.0870087279487, 30.054272654584704)</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -7535,7 +7505,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>(53.09179154174753, 25.688919070789154)</t>
+          <t>(51.85004559916226, 29.127246749999202)</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -7715,7 +7685,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>(54.5227752525018, 26.745169179240644)</t>
+          <t>(52.9364597393368, 27.896024115477527)</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
@@ -7760,7 +7730,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>(54.52066587150882, 30.42348181531588)</t>
+          <t>(54.5208750774069, 30.42280474488668)</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
@@ -7805,7 +7775,7 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>(53.5131591866652, 28.141951408442562)</t>
+          <t>(53.52678609915441, 28.140971399992935)</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -7840,7 +7810,7 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>(53.84281129918269, 28.976554199998052)</t>
+          <t>(53.94423189921805, 27.58810909998973)</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
@@ -7920,7 +7890,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>(53.92183425112783, 27.562497223565575)</t>
+          <t>(53.92194052885831, 27.561774120009478)</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -8130,7 +8100,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>(53.900164837843974, 27.50548162692202)</t>
+          <t>(53.89966804567051, 27.503064893351294)</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -8200,7 +8170,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>(54.00660741949496, 27.853801489905663)</t>
+          <t>(53.917515616117484, 27.667003957297013)</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
@@ -8245,7 +8215,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>(53.163591549112695, 29.858875949999494)</t>
+          <t>(53.1547332525813, 29.85760727611288)</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -8465,12 +8435,12 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>(52.22357447490542, 30.943761861491524)</t>
+          <t>(52.25710659914537, 30.961199000017693)</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -8638,16 +8608,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>(52.208232999933145, 27.01143593358832)</t>
-        </is>
-      </c>
-      <c r="Q192" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="193" ht="14.4" customHeight="1" s="3">
       <c r="A193" s="2" t="n">
@@ -8685,7 +8645,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>(52.19899145137997, 27.10806736987233)</t>
+          <t>(54.011807349220426, 30.174164399997373)</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -8820,7 +8780,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>(52.815222971614105, 28.020011464853567)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -8865,7 +8825,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>(52.12437047431136, 29.333998520642645)</t>
+          <t>(52.133494646396315, 29.341747618370313)</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -9205,7 +9165,7 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>(53.74350642539401, 27.690338359022558)</t>
+          <t>(53.89062531197835, 27.550775428002666)</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
@@ -9240,7 +9200,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>(53.90771591309947, 27.62081434378406)</t>
+          <t>(53.906610099179254, 27.619533849999993)</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -9320,12 +9280,12 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>(53.81742092185922, 27.703853601716997)</t>
+          <t>(53.84769751034443, 27.702445990026803)</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9400,7 +9360,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>(53.93401264391811, 27.693620626507403)</t>
+          <t>(53.93386135016713, 27.69813885144199)</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
@@ -9505,7 +9465,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -9710,7 +9670,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>(52.704936047080174, 25.345101779446793)</t>
+          <t>(52.73207569817745, 25.322782983260108)</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
@@ -9755,7 +9715,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>(54.21900856183367, 27.850629636395574)</t>
+          <t>(54.22368232924931, 27.8518988024034)</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
@@ -9885,7 +9845,7 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>(52.12669769512656, 29.338320826089237)</t>
+          <t>(52.127026399137854, 29.353725250000778)</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
@@ -9925,7 +9885,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>(52.41372364911189, 30.92863329999949)</t>
+          <t>(52.41394982501086, 30.92837084636236)</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
@@ -10165,7 +10125,7 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>(52.39911718036662, 30.965072762127228)</t>
+          <t>(52.39724679912305, 30.959651750015496)</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
@@ -10210,7 +10170,7 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>(54.47411799937873, 26.090215699989013)</t>
+          <t>(54.47332089593345, 26.090223609423248)</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
@@ -10375,7 +10335,7 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>(52.13336079676033, 26.010784679349626)</t>
+          <t>(52.13325702408002, 26.0724129682676)</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
@@ -10535,7 +10495,7 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>(52.10529811037887, 26.0498484126343)</t>
+          <t>(52.10485372251736, 26.05415668063307)</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
@@ -10615,7 +10575,7 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>(52.120785448767485, 26.04211403502941)</t>
+          <t>(52.124078364162855, 26.046587172736416)</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
@@ -10695,7 +10655,7 @@
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>(52.120785448767485, 26.04211403502941)</t>
+          <t>(52.124078364162855, 26.046587172736416)</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
@@ -10780,7 +10740,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>(52.45589031759076, 30.920317619666584)</t>
+          <t>(52.455953405046266, 30.92086093251253)</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
@@ -10915,7 +10875,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>(51.996800864497565, 27.053196452512697)</t>
+          <t>(51.985949666129564, 27.074281197511397)</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
@@ -10960,7 +10920,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>(52.039451191188064, 27.338155330500026)</t>
+          <t>(52.04251714070882, 27.329417929293218)</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
@@ -11005,7 +10965,7 @@
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>(52.20330637584243, 28.218048926070736)</t>
+          <t>(51.9335422491619, 26.68586695000119)</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
@@ -11050,7 +11010,7 @@
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>(51.93355998362088, 23.929180190292673)</t>
+          <t>(53.396281640960176, 24.24319306881742)</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
@@ -11090,7 +11050,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>(54.09609241284844, 28.304678360932137)</t>
+          <t>(54.09705684921275, 28.303577000002214)</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
